--- a/server/server/docs/RoomsMaps.xlsx
+++ b/server/server/docs/RoomsMaps.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\planner4students\server\server\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270BA7F7-908D-482C-BEE6-710056086F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D0438C-AA2B-4BAE-9785-0DA8F9B31E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-795" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>https://www.google.com/maps/place/Facultatea+de+%C5%9Etiin%C5%A3e+Economice+%C5%9Fi+Gestiunea+Afacerilor/@46.7732212,23.6199529,3a,75y,348.52h,93.34t/data=!3m7!1e1!3m5!1sCIABIhAGbzzgChNBAme4yesACspp!2e10!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbL7CFURFJmkvA2nVuotSc5eUYbnq9wABY0Mq7Z6Bj_kegzpNeiI2bPNh8tirViZ2U-Hg3NJhdXdy2FM10YRmtNPuOI_-lorN8uTo79jKQ3IK598-GG9RShkhh74a91Viek1QocwjYDkyZ7%3Dw900-h600-k-no-pi-3.338997654832127-ya89.51889005609826-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x47490c15a18e8af9:0xcc357d4dedcf12a0!8m2!3d46.7731747!4d23.621394!16s%2Fg%2F1yglpxyfs?entry=ttu&amp;g_ep=EgoyMDI1MDUyMS4wIKXMDSoASAFQAw%3D%3D</t>
   </si>
@@ -78,9 +79,6 @@
     <t>https://www.google.com/maps/place/Facultatea+de+%C5%9Etiin%C5%A3e+Economice+%C5%9Fi+Gestiunea+Afacerilor/@46.7730691,23.619996,3a,75y,174.83h,90.44t/data=!3m7!1e1!3m5!1sCIABIhAGbyfQ7jHAE2e4yZ8ACVBc!2e10!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbvKgN2l7ZlLfCFwRXlDvlvI-PP6-AyWmyNFeUd5qUijHlUDI271R_gy0jcaLX_RSl3vPEPgECItPzGFCVl80YImSoosHpcN5W3zQi1Dx4XF7x6WWTY5BLDe1fwXyMFgZYnExL5D_UdG7yn%3Dw900-h600-k-no-pi-0.44409260359167035-ya359.4282800226167-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x47490c15a18e8af9:0xcc357d4dedcf12a0!8m2!3d46.7731747!4d23.621394!16s%2Fg%2F1yglpxyfs?entry=ttu&amp;g_ep=EgoyMDI1MDUyMS4wIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>L310</t>
-  </si>
-  <si>
     <t>L320</t>
   </si>
   <si>
@@ -121,6 +119,39 @@
   </si>
   <si>
     <t>L301</t>
+  </si>
+  <si>
+    <t>C310</t>
+  </si>
+  <si>
+    <t>5/I</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Strada+Mihail+Kog%C4%83lniceanu,+Cluj-Napoca/@46.7677724,23.5912832,3a,75y,286.17h,79.63t/data=!3m7!1e1!3m5!1sCIHM0ogKEICAgIDdvPqebA!2e10!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaEApo7djYWTFwZrFAe3jo1wdgD7d7gK0ZYcgl85UHh1S1HzOpsAbAcCShiPU-qfero4foUdZBt5BUxbZcBSSzJO9stotO8JfQPoGPL3E4gcvCQX1sM9b1rCfO1mwHEn365kwc%3Dw900-h600-k-no-pi10.3688897461318-ya160.76591765234872-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x47490c262c68582b:0xc436d9cf5c272d5!8m2!3d46.7678233!4d23.59388!16s%2Fg%2F1wbrwkk1?entry=ttu&amp;g_ep=EgoyMDI1MDYwOS4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Strada+Mihail+Kog%C4%83lniceanu,+Cluj-Napoca/@46.7676592,23.5912619,3a,75y,197.82h,85.97t/data=!3m7!1e1!3m5!1sCIABIhAGbyfQ7jHAE2e4PvYACMLU!2e10!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZK1KIpvvT9Ng9LoL5v1HHvn_76PsDuRdqoSlYDxnTW_8peMYNnxNDWw74o5w6DuJuQQ3WQIidq1MvjEk8bo-hsiH5dzgsN0duHFbLlY3e9F4jNZq84neIgU6Oj8l98H7hSVQ2HvDjg4oUl%3Dw900-h600-k-no-pi4.033146644720475-ya179.81694344199082-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x47490c262c68582b:0xc436d9cf5c272d5!8m2!3d46.7678233!4d23.59388!16s%2Fg%2F1wbrwkk1?entry=ttu&amp;g_ep=EgoyMDI1MDYwOS4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Strada+Mihail+Kog%C4%83lniceanu,+Cluj-Napoca/@46.76761,23.5913679,3a,75y,10.52h,85.48t/data=!3m7!1e1!3m5!1sCIABIhAGbyfQ7jHAE2e4PtIAAxNB!2e10!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HY-Vx2gj695p-MncMVdEpxH0E0NhkdUevvG0_IoT9U1pZYJT0TZ_XU9VHukoJUk_AGqXkypJGCv3_lML_uzAfPPff4hphy01_ywOdJXkzLSNtsvMU_22UIJgx4Sfiqk2bNjNl0Oqvl2sQBR%3Dw900-h600-k-no-pi4.517445130434794-ya271.9154046067518-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x47490c262c68582b:0xc436d9cf5c272d5!8m2!3d46.7678233!4d23.59388!16s%2Fg%2F1wbrwkk1?entry=ttu&amp;g_ep=EgoyMDI1MDYwOS4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Strada+Mihail+Kog%C4%83lniceanu,+Cluj-Napoca/@46.7677489,23.5914444,3a,75y,272.68h,92.41t/data=!3m7!1e1!3m5!1sCIABIhAGbyfQ7jHAE2e4PocACItK!2e10!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZ2Y4ZX_JQrE31vqijh_fBmH6gRt2Egw4OfHrtEyCtKFjrFUZC2qRLkQiuLPODdOg-Ds8lgaGHZbIT2ZtSgAxyUJ5_EvAm7And1d8IaMuIgcm3OKOuue2BXBfeca5w7l79bPRgN2V695Zo%3Dw900-h600-k-no-pi-2.410344715646275-ya182.68055670026916-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x47490c262c68582b:0xc436d9cf5c272d5!8m2!3d46.7678233!4d23.59388!16s%2Fg%2F1wbrwkk1?entry=ttu&amp;g_ep=EgoyMDI1MDYwOS4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>2/I</t>
+  </si>
+  <si>
+    <t>7/I</t>
+  </si>
+  <si>
+    <t>9/I</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Strada+Mihail+Kog%C4%83lniceanu,+Cluj-Napoca/@46.7676184,23.5914005,3a,75y,217.54h,81.46t/data=!3m7!1e1!3m5!1sCIABIhAGbzzgChNBAme4PpoABPHp!2e10!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbL2fP0pkPbkna2ugCfZl2DZPssjTpgg7RNwho6pik65zqLLZpxGfszxpAdQS0mRjhZ-AQK3GCWrGQMQTNN0M1BRNyrTkW1XatGFRMni9-s-SxaUc6LTpnLe9mZkfAJVKmMymfQiMbuVwB3%3Dw900-h600-k-no-pi8.541850826201838-ya146.53624326891398-ro0-fo100!7i6080!8i3040!4m7!3m6!1s0x47490c262c68582b:0xc436d9cf5c272d5!8m2!3d46.7678233!4d23.59388!10e5!16s%2Fg%2F1wbrwkk1?entry=ttu&amp;g_ep=EgoyMDI1MDYxMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>6/II</t>
   </si>
 </sst>
 </file>
@@ -438,17 +469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -456,7 +487,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -464,7 +495,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -472,7 +503,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -480,7 +511,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -488,7 +519,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -496,7 +527,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -512,7 +543,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -520,7 +551,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -528,7 +559,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -536,7 +567,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -544,7 +575,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -552,7 +583,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -560,7 +591,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -568,10 +599,50 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
